--- a/final_attendance.xlsx
+++ b/final_attendance.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,7 +452,27 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>429</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>nishant</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>simrandeep</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/final_attendance.xlsx
+++ b/final_attendance.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,27 +452,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>79</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>nishant</t>
+          <t>SAI</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>simrandeep</t>
+          <t>nishant</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>20</v>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>parthib</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/final_attendance.xlsx
+++ b/final_attendance.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,41 +448,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Nabajit</t>
+          <t>SAI</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>156</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SAI</t>
+          <t>nabajit</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>nishant</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>parthib</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>53</v>
+        <v>374</v>
       </c>
     </row>
   </sheetData>
